--- a/Reference/Fleetpay Export 1_1_2025_1_32.xlsx
+++ b/Reference/Fleetpay Export 1_1_2025_1_32.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\OneDrive\Desktop\Code\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\OneDrive\Desktop\Code\fleetpay\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68AC8DCD-F65F-47CE-B528-5ABEBBAC6554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D4F667-DD5A-4250-AF10-20E413E40148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{D4EF7FA8-7B58-4662-92D1-106F6BF68379}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="23">
   <si>
     <t>Project Number</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>1/2/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avra Lavein </t>
   </si>
 </sst>
 </file>
@@ -970,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D18B84-B996-4173-9089-19394B9216C1}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1075,7 +1078,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1421,7 +1424,262 @@
         <v>https://pf.apps.projectsforce.com/project/view/8454509</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>490</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8462680")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8462680</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>150</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8425289")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8425289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>150</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8425289")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8425289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>843320560</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8458740")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8458740</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>843306884</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8458488")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8458488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>840327215</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8456779")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8456779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1">
+        <v>300</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8462680")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8462680</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>843134782</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8454509")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8454509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8409967")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8409967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>829300809</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8445757")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8445757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>843182037</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8455449")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8455449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>842020230</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="str">
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:F33">
+    <sortCondition ref="B23:B33"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Reference/Fleetpay Export 1_1_2025_1_32.xlsx
+++ b/Reference/Fleetpay Export 1_1_2025_1_32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\OneDrive\Desktop\Code\fleetpay\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D4F667-DD5A-4250-AF10-20E413E40148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00AE1E-CE0B-4609-9196-76553D81D593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{D4EF7FA8-7B58-4662-92D1-106F6BF68379}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="10800" windowHeight="18720" xr2:uid="{D4EF7FA8-7B58-4662-92D1-106F6BF68379}"/>
   </bookViews>
   <sheets>
     <sheet name="Fleetpay Export 1_1_2025_1_3" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="24">
   <si>
     <t>Project Number</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">Avra Lavein </t>
+  </si>
+  <si>
+    <t>Jake Williams</t>
   </si>
 </sst>
 </file>
@@ -973,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D18B84-B996-4173-9089-19394B9216C1}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1676,6 +1679,132 @@
         <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>842020231</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" ref="F34:F39" si="0">HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
+        <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>842020232</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>842020233</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>842020234</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>842020235</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="1">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>842020236</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="1">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:F33">
     <sortCondition ref="B23:B33"/>

--- a/Reference/Fleetpay Export 1_1_2025_1_32.xlsx
+++ b/Reference/Fleetpay Export 1_1_2025_1_32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\OneDrive\Desktop\Code\fleetpay\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00AE1E-CE0B-4609-9196-76553D81D593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FEF7CA-A311-480B-9967-915EED9D04D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="340" windowWidth="10800" windowHeight="18720" xr2:uid="{D4EF7FA8-7B58-4662-92D1-106F6BF68379}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{D4EF7FA8-7B58-4662-92D1-106F6BF68379}"/>
   </bookViews>
   <sheets>
     <sheet name="Fleetpay Export 1_1_2025_1_3" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
   <si>
     <t>Project Number</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Job Link</t>
   </si>
   <si>
-    <t>WO002814905</t>
-  </si>
-  <si>
     <t>Don Havird</t>
   </si>
   <si>
@@ -65,18 +62,12 @@
     <t>Scott Dieter</t>
   </si>
   <si>
-    <t>WO002791433</t>
-  </si>
-  <si>
     <t>Av Francisco</t>
   </si>
   <si>
     <t>Robert Gardner</t>
   </si>
   <si>
-    <t>WO002785033</t>
-  </si>
-  <si>
     <t>Nancy Levesque</t>
   </si>
   <si>
@@ -105,6 +96,42 @@
   </si>
   <si>
     <t>Jake Williams</t>
+  </si>
+  <si>
+    <t>WO002814906</t>
+  </si>
+  <si>
+    <t>WO002814907</t>
+  </si>
+  <si>
+    <t>WO002791434</t>
+  </si>
+  <si>
+    <t>WO002785034</t>
+  </si>
+  <si>
+    <t>WO002785035</t>
+  </si>
+  <si>
+    <t>WO002785036</t>
+  </si>
+  <si>
+    <t>WO002785037</t>
+  </si>
+  <si>
+    <t>WO002791435</t>
+  </si>
+  <si>
+    <t>WO002791446</t>
+  </si>
+  <si>
+    <t>1/3/2025</t>
+  </si>
+  <si>
+    <t>1/5/2025</t>
+  </si>
+  <si>
+    <t>1/8/2025</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1006,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,19 +1036,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8462680")</f>
@@ -1030,19 +1057,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>843182037</v>
+        <v>843182038</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8455449")</f>
@@ -1051,19 +1078,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8425289")</f>
@@ -1072,19 +1099,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>829300809</v>
+        <v>829300810</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>490</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8445757")</f>
@@ -1093,19 +1120,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8409967")</f>
@@ -1114,19 +1141,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>843320560</v>
+        <v>843320561</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8458740")</f>
@@ -1135,19 +1162,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>840327215</v>
+        <v>840327216</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8456779")</f>
@@ -1156,19 +1183,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>842020230</v>
+        <v>842020231</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
@@ -1177,19 +1204,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>843306884</v>
+        <v>843306885</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8458488")</f>
@@ -1198,19 +1225,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>843134782</v>
+        <v>843134783</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8454509")</f>
@@ -1219,19 +1246,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8462680")</f>
@@ -1240,19 +1267,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>843182037</v>
+        <v>843182038</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8455449")</f>
@@ -1261,19 +1288,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1">
         <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8425289")</f>
@@ -1282,19 +1309,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>829300809</v>
+        <v>829300810</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8445757")</f>
@@ -1303,19 +1330,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8409967")</f>
@@ -1324,19 +1351,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>843320560</v>
+        <v>843320564</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1">
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8458740")</f>
@@ -1345,19 +1372,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>840327215</v>
+        <v>840327216</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1">
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F18" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8456779")</f>
@@ -1366,19 +1393,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>842020230</v>
+        <v>842020231</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
@@ -1387,19 +1414,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>843306884</v>
+        <v>843306885</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1">
-        <v>30</v>
+        <v>490</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8458488")</f>
@@ -1408,19 +1435,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>843134782</v>
+        <v>843134783</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
-        <v>30</v>
+        <v>650</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8454509")</f>
@@ -1429,19 +1456,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1">
         <v>490</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8462680")</f>
@@ -1450,19 +1477,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1">
         <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8425289")</f>
@@ -1471,19 +1498,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1">
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8425289")</f>
@@ -1492,19 +1519,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>843320560</v>
+        <v>843320568</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1">
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F25" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8458740")</f>
@@ -1513,19 +1540,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>843306884</v>
+        <v>843306890</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1">
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8458488")</f>
@@ -1534,19 +1561,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>840327215</v>
+        <v>840327216</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1">
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F27" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8456779")</f>
@@ -1555,19 +1582,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1">
         <v>300</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8462680")</f>
@@ -1576,19 +1603,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>843134782</v>
+        <v>843134786</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1">
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8454509")</f>
@@ -1597,19 +1624,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F30" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8409967")</f>
@@ -1618,19 +1645,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>829300809</v>
+        <v>829300810</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8445757")</f>
@@ -1639,19 +1666,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>843182037</v>
+        <v>843182039</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8455449")</f>
@@ -1660,19 +1687,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>842020230</v>
+        <v>842020231</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
         <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="str">
         <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
@@ -1681,134 +1708,131 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>842020231</v>
+        <v>842020232</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ref="F34:F39" si="0">HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
         <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>842020232</v>
+        <v>842020233</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
         <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>842020233</v>
+        <v>842020234</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1">
-        <v>35</v>
+        <v>810</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
         <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>842020234</v>
+        <v>842020235</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
         <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>842020235</v>
+        <v>842020236</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
         <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>842020236</v>
+        <v>842020237</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1">
         <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("https://pf.apps.projectsforce.com/project/view/8430847")</f>
         <v>https://pf.apps.projectsforce.com/project/view/8430847</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:F33">
-    <sortCondition ref="B23:B33"/>
-  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
